--- a/input/dysbiosis_microbiome_dog.xlsx
+++ b/input/dysbiosis_microbiome_dog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\4719836_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\198398_2_27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82AAF25-FC1C-4BCC-99D9-34D8ECFC6E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A21F926-0AFB-4775-9D20-68C7FBDBC33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5665EC67-C46A-41B8-996F-812DAAD40A2A}"/>
+    <workbookView xWindow="58380" yWindow="1515" windowWidth="13785" windowHeight="585" xr2:uid="{5665EC67-C46A-41B8-996F-812DAAD40A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,6 @@
     <t>s__Escherichia_dysenteriae</t>
   </si>
   <si>
-    <t>Staphylococcus pseudintermedius</t>
-  </si>
-  <si>
-    <t>s__Staphylococcus_pseudintermedius</t>
-  </si>
-  <si>
     <t>Campylobacter jejuni</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
   </si>
   <si>
     <t>s__Bifidobacterium_infantis</t>
+  </si>
+  <si>
+    <t>Clostridioides difficile</t>
+  </si>
+  <si>
+    <t>s__Clostridioides_difficile</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D52F516-85B8-444F-94FE-8611EF3BF5C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -848,12 +848,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -862,10 +862,10 @@
     </row>
     <row r="10" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="10" t="s">
@@ -874,10 +874,10 @@
     </row>
     <row r="11" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="12" t="s">
@@ -886,10 +886,10 @@
     </row>
     <row r="12" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="12" t="s">
@@ -898,10 +898,10 @@
     </row>
     <row r="13" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="12" t="s">
@@ -910,10 +910,10 @@
     </row>
     <row r="14" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="14" t="s">
@@ -922,10 +922,10 @@
     </row>
     <row r="15" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="12" t="s">
@@ -934,10 +934,10 @@
     </row>
     <row r="16" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="14" t="s">
@@ -946,10 +946,10 @@
     </row>
     <row r="17" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -958,134 +958,134 @@
     </row>
     <row r="18" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/input/dysbiosis_microbiome_dog.xlsx
+++ b/input/dysbiosis_microbiome_dog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\198398_2_27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\65145406_6_38\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A21F926-0AFB-4775-9D20-68C7FBDBC33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E576188C-0911-4762-B1D4-E2B63EACF3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58380" yWindow="1515" windowWidth="13785" windowHeight="585" xr2:uid="{5665EC67-C46A-41B8-996F-812DAAD40A2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{5665EC67-C46A-41B8-996F-812DAAD40A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>NCBI name</t>
   </si>
@@ -193,6 +193,54 @@
   </si>
   <si>
     <t>s__Clostridioides_difficile</t>
+  </si>
+  <si>
+    <t>Lactobacillus acidophilus</t>
+  </si>
+  <si>
+    <t>s__Lactobacillus_acidophilus</t>
+  </si>
+  <si>
+    <t>Lactobacillus plantarum</t>
+  </si>
+  <si>
+    <t>s__Lactobacillus_plantarum</t>
+  </si>
+  <si>
+    <t>Bifidobacterium animalis</t>
+  </si>
+  <si>
+    <t>s__Bifidobacterium_animalis</t>
+  </si>
+  <si>
+    <t>Lactobacillus reuteri</t>
+  </si>
+  <si>
+    <t>s__Lactobacillus_reuteri</t>
+  </si>
+  <si>
+    <t>Lactobacillus casei</t>
+  </si>
+  <si>
+    <t>s__Lactobacillus_casei</t>
+  </si>
+  <si>
+    <t>Bifidobacterium breve</t>
+  </si>
+  <si>
+    <t>s__Bifidobacterium_breve</t>
+  </si>
+  <si>
+    <t>Bifidobacterium bifidum</t>
+  </si>
+  <si>
+    <t>s__Bifidobacterium_bifidum</t>
+  </si>
+  <si>
+    <t>Streptococcus thermophilus</t>
+  </si>
+  <si>
+    <t>s__Streptococcus_thermophilus</t>
   </si>
 </sst>
 </file>
@@ -228,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +307,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -379,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,6 +481,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D52F516-85B8-444F-94FE-8611EF3BF5C9}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1077,14 +1134,110 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
